--- a/Function Point calculator.xlsx
+++ b/Function Point calculator.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Information Domain Value</t>
   </si>
@@ -55,28 +55,85 @@
     <t>External Inqueries (EQs)</t>
   </si>
   <si>
-    <t>simple = 1</t>
-  </si>
-  <si>
-    <t>Average = 2</t>
-  </si>
-  <si>
-    <t>Complex = 3</t>
-  </si>
-  <si>
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Difficulty (pick list)</t>
-  </si>
-  <si>
     <t>Difficulty Choice</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>WEIGHTED SUM</t>
+  </si>
+  <si>
+    <t>1.       Backup and recovery</t>
+  </si>
+  <si>
+    <t>2.       Data communications</t>
+  </si>
+  <si>
+    <t>3.       Distributed processing</t>
+  </si>
+  <si>
+    <t>4.       Performance</t>
+  </si>
+  <si>
+    <t>5.       Heavy use</t>
+  </si>
+  <si>
+    <t>6.       On-line data entry</t>
+  </si>
+  <si>
+    <t>7.       Multiple screens</t>
+  </si>
+  <si>
+    <t>8.       On-line update</t>
+  </si>
+  <si>
+    <t>9.       Data complexity</t>
+  </si>
+  <si>
+    <t>10.   Processing complexity</t>
+  </si>
+  <si>
+    <t>11.   Reusability</t>
+  </si>
+  <si>
+    <t>12.   Conversion/installation</t>
+  </si>
+  <si>
+    <t>13.   Multiple installation</t>
+  </si>
+  <si>
+    <t>14.   Facilitate change</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Complex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,15 +151,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -235,11 +298,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -255,6 +355,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -565,63 +678,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <f>C3*(IF(B3=1,D3,IF(B3=2,E3,IF(B3=3,F3,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
+        <f>C3*(IF(B3="Simple",D3,IF(B3="Average",E3,IF(B3="Complex",F3,0))))</f>
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -632,77 +745,77 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G7" si="0">C4*(IF(B4=1,D4,IF(B4=2,E4,IF(B4=3,F4,0))))</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G7" si="0">C4*(IF(B4="Simple",D4,IF(B4="Average",E4,IF(B4="Complex",F4,0))))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -713,14 +826,161 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13">
+        <f>SUM(G2:G7)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B11:B24)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7">
